--- a/InventoryManagement.xlsx
+++ b/InventoryManagement.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhara\OneDrive - North Carolina State University\INFORMS2019\iventorysystemcompetition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42C60F-3F7E-488E-905E-AF758A7209EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965C0927-5373-4F5E-9618-DA1B90945165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{7E0F181B-BC2F-43C7-89F5-88FF1E26842A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E0F181B-BC2F-43C7-89F5-88FF1E26842A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Invenroy Managment Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory Management Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Invenroy Managment Sheet'!$H$4:$H$27</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Inventory Management Sheet'!$H$4:$H$27</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Invenroy Managment Sheet'!$H$4:$H$27</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Invenroy Managment Sheet'!$H$4:$H$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Inventory Management Sheet'!$H$4:$H$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Inventory Management Sheet'!$H$4:$H$27</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Invenroy Managment Sheet'!$L$36</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Inventory Management Sheet'!$L$36</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -68,15 +68,51 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A0679BD3-C6F4-46FD-A976-B84E7A62D8DD}</author>
+    <author>tc={D354FD02-8387-42BA-B316-4A8F5A5211BF}</author>
+    <author>tc={937F827D-F33C-4B68-9DEB-77832B4C3335}</author>
+    <author>tc={01CBB81A-F876-4867-ACC2-FB985B11700A}</author>
+    <author>tc={047F1406-1B6E-4479-9AAC-B360F17E3229}</author>
+    <author>tc={41D3478A-59B1-4812-A174-5A0F674B961D}</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A0679BD3-C6F4-46FD-A976-B84E7A62D8DD}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{D354FD02-8387-42BA-B316-4A8F5A5211BF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Insert Demand Data Observed Here</t>
+    Beginning Inventory</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{937F827D-F33C-4B68-9DEB-77832B4C3335}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Insert demand data for 2006 and 2007 here</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="2" shapeId="0" xr:uid="{01CBB81A-F876-4867-ACC2-FB985B11700A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Order Quantity</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="3" shapeId="0" xr:uid="{047F1406-1B6E-4479-9AAC-B360F17E3229}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ending Inventory: positive for holding and negative for backorder</t>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="4" shapeId="0" xr:uid="{41D3478A-59B1-4812-A174-5A0F674B961D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Order quantity is calculated based on order upto levels of Jan 2008</t>
       </text>
     </comment>
   </commentList>
@@ -84,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Period</t>
   </si>
@@ -151,28 +187,19 @@
     <t>Total Backorder cost</t>
   </si>
   <si>
-    <t>Total Inv Cost</t>
-  </si>
-  <si>
-    <t>Toatl Backprder cost</t>
-  </si>
-  <si>
-    <t>Average Inv cost</t>
-  </si>
-  <si>
-    <t>Avg backprder cost</t>
-  </si>
-  <si>
     <t>Total cost</t>
   </si>
   <si>
-    <t>Insert demand data here</t>
-  </si>
-  <si>
-    <t>Inventory holding cost</t>
-  </si>
-  <si>
-    <t>Forecast Error Distribution</t>
+    <t>Total Inventory Cost</t>
+  </si>
+  <si>
+    <t>Total backorder cost</t>
+  </si>
+  <si>
+    <t>Average Inventory cost</t>
+  </si>
+  <si>
+    <t>Average backorder cost</t>
   </si>
 </sst>
 </file>
@@ -182,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,10 +226,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -408,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,13 +521,11 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +546,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Bharadwaj Manda" id="{2C92F9D4-B743-423E-963E-96BA2255305A}" userId="b4e1265cbcbeecf9" providerId="Windows Live"/>
+  <person displayName="Srini" id="{21FB6741-692D-4BB8-973B-2A476C74D329}" userId="Srini" providerId="None"/>
 </personList>
 </file>
 
@@ -814,8 +847,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2019-10-13T02:49:20.21" personId="{2C92F9D4-B743-423E-963E-96BA2255305A}" id="{A0679BD3-C6F4-46FD-A976-B84E7A62D8DD}">
-    <text>Insert Demand Data Observed Here</text>
+  <threadedComment ref="C2" dT="2019-10-13T03:15:27.70" personId="{21FB6741-692D-4BB8-973B-2A476C74D329}" id="{D354FD02-8387-42BA-B316-4A8F5A5211BF}">
+    <text>Beginning Inventory</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2019-10-13T03:15:18.31" personId="{21FB6741-692D-4BB8-973B-2A476C74D329}" id="{937F827D-F33C-4B68-9DEB-77832B4C3335}">
+    <text>Insert demand data for 2006 and 2007 here</text>
+  </threadedComment>
+  <threadedComment ref="H2" dT="2019-10-13T03:15:37.94" personId="{21FB6741-692D-4BB8-973B-2A476C74D329}" id="{01CBB81A-F876-4867-ACC2-FB985B11700A}">
+    <text>Order Quantity</text>
+  </threadedComment>
+  <threadedComment ref="I2" dT="2019-10-13T03:15:46.40" personId="{21FB6741-692D-4BB8-973B-2A476C74D329}" id="{047F1406-1B6E-4479-9AAC-B360F17E3229}">
+    <text>Ending Inventory: positive for holding and negative for backorder</text>
+  </threadedComment>
+  <threadedComment ref="H27" dT="2019-10-13T03:17:02.54" personId="{21FB6741-692D-4BB8-973B-2A476C74D329}" id="{41D3478A-59B1-4812-A174-5A0F674B961D}">
+    <text>Order quantity is calculated based on order upto levels of Jan 2008</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -825,24 +870,24 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.53515625" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" customWidth="1"/>
-    <col min="4" max="7" width="16.84375" customWidth="1"/>
-    <col min="8" max="8" width="15.84375" customWidth="1"/>
-    <col min="9" max="9" width="20.3046875" customWidth="1"/>
-    <col min="10" max="11" width="21.84375" customWidth="1"/>
-    <col min="12" max="12" width="13.3828125" customWidth="1"/>
-    <col min="13" max="13" width="14.4609375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.3828125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:17" ht="31.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -850,7 +895,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -875,16 +920,16 @@
         <v>9</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -907,7 +952,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>38718</v>
       </c>
@@ -922,14 +967,14 @@
         <v>100</v>
       </c>
       <c r="E4" s="16">
-        <f>D4+K3</f>
+        <f t="shared" ref="E4:E27" si="0">D4+K3</f>
         <v>100</v>
       </c>
       <c r="F4" s="16">
         <v>99.176780269999995</v>
       </c>
       <c r="G4" s="16">
-        <f>C4-E4</f>
+        <f t="shared" ref="G4:G27" si="1">C4-E4</f>
         <v>-27</v>
       </c>
       <c r="H4" s="17">
@@ -937,7 +982,7 @@
         <v>127.03143326999999</v>
       </c>
       <c r="I4" s="18">
-        <f>C4-E4</f>
+        <f t="shared" ref="I4:I27" si="2">C4-E4</f>
         <v>-27</v>
       </c>
       <c r="J4" s="16">
@@ -963,7 +1008,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>38749</v>
       </c>
@@ -978,38 +1023,38 @@
         <v>100</v>
       </c>
       <c r="E5" s="16">
-        <f>D5+K4</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="F5" s="16">
         <v>100.03143326999999</v>
       </c>
       <c r="G5" s="16">
-        <f>C5-E5</f>
+        <f t="shared" si="1"/>
         <v>3.143326999999374E-2</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" ref="H5:H26" si="0">F6-G5</f>
+        <f t="shared" ref="H5:H25" si="3">F6-G5</f>
         <v>112.35766973000001</v>
       </c>
       <c r="I5" s="18">
-        <f>C5-E5</f>
+        <f t="shared" si="2"/>
         <v>3.143326999999374E-2</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" ref="J5:J27" si="1">MAX(I5,0)</f>
+        <f t="shared" ref="J5:J27" si="4">MAX(I5,0)</f>
         <v>3.143326999999374E-2</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" ref="K5:K15" si="2">MAX(-I5,0)</f>
+        <f t="shared" ref="K5:K15" si="5">MAX(-I5,0)</f>
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" ref="L5:L15" si="3">(1*J5)+(1*(MAX(J5-90,0)))</f>
+        <f t="shared" ref="L5:L15" si="6">(1*J5)+(1*(MAX(J5-90,0)))</f>
         <v>3.143326999999374E-2</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" ref="M5:M15" si="4">3*K5</f>
+        <f t="shared" ref="M5:M15" si="7">3*K5</f>
         <v>0</v>
       </c>
       <c r="P5" t="s">
@@ -1019,7 +1064,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>38777</v>
       </c>
@@ -1027,49 +1072,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="14">
-        <f t="shared" ref="C6:C15" si="5">J5+H5</f>
+        <f t="shared" ref="C6:C15" si="8">J5+H5</f>
         <v>112.38910300000001</v>
       </c>
       <c r="D6" s="15">
         <v>100</v>
       </c>
       <c r="E6" s="16">
-        <f>D6+K5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F6" s="16">
         <v>112.38910300000001</v>
       </c>
       <c r="G6" s="16">
-        <f>C6-E6</f>
-        <v>12.389103000000006</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="0"/>
-        <v>84.694969779999994</v>
-      </c>
-      <c r="I6" s="18">
-        <f>C6-E6</f>
-        <v>12.389103000000006</v>
-      </c>
-      <c r="J6" s="16">
         <f t="shared" si="1"/>
         <v>12.389103000000006</v>
       </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>84.694969779999994</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="2"/>
+        <v>12.389103000000006</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="4"/>
+        <v>12.389103000000006</v>
+      </c>
       <c r="K6" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12.389103000000006</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>38808</v>
       </c>
@@ -1077,49 +1122,49 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>97.08407278</v>
       </c>
       <c r="D7" s="15">
         <v>100</v>
       </c>
       <c r="E7" s="16">
-        <f>D7+K6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F7" s="16">
         <v>97.08407278</v>
       </c>
       <c r="G7" s="16">
-        <f>C7-E7</f>
+        <f t="shared" si="1"/>
         <v>-2.9159272200000004</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>102.56008485</v>
       </c>
       <c r="I7" s="18">
-        <f>C7-E7</f>
+        <f t="shared" si="2"/>
         <v>-2.9159272200000004</v>
       </c>
       <c r="J7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9159272200000004</v>
       </c>
       <c r="L7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7477816600000011</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>38838</v>
       </c>
@@ -1127,49 +1172,49 @@
         <v>5</v>
       </c>
       <c r="C8" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>102.56008485</v>
       </c>
       <c r="D8" s="15">
         <v>100</v>
       </c>
       <c r="E8" s="16">
-        <f>D8+K7</f>
+        <f t="shared" si="0"/>
         <v>102.91592722</v>
       </c>
       <c r="F8" s="16">
         <v>99.644157629999995</v>
       </c>
       <c r="G8" s="16">
-        <f>C8-E8</f>
+        <f t="shared" si="1"/>
         <v>-0.35584237000000485</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111.63483057000001</v>
       </c>
       <c r="I8" s="18">
-        <f>C8-E8</f>
+        <f t="shared" si="2"/>
         <v>-0.35584237000000485</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35584237000000485</v>
       </c>
       <c r="L8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M8" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0675271100000145</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>38869</v>
       </c>
@@ -1177,21 +1222,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>111.63483057000001</v>
       </c>
       <c r="D9" s="15">
         <v>100</v>
       </c>
       <c r="E9" s="16">
-        <f>D9+K8</f>
+        <f t="shared" si="0"/>
         <v>100.35584237</v>
       </c>
       <c r="F9" s="16">
         <v>111.2789882</v>
       </c>
       <c r="G9" s="16">
-        <f>C9-E9</f>
+        <f t="shared" si="1"/>
         <v>11.278988200000001</v>
       </c>
       <c r="H9" s="17">
@@ -1199,11 +1244,11 @@
         <v>91.968000599999996</v>
       </c>
       <c r="I9" s="18">
-        <f>C9-E9</f>
+        <f t="shared" si="2"/>
         <v>11.278988200000001</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.278988200000001</v>
       </c>
       <c r="K9" s="16">
@@ -1211,15 +1256,15 @@
         <v>0</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.278988200000001</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>38899</v>
       </c>
@@ -1227,49 +1272,49 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>103.2469888</v>
       </c>
       <c r="D10" s="15">
         <v>100</v>
       </c>
       <c r="E10" s="16">
-        <f>D10+K9</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F10" s="16">
         <v>103.2469888</v>
       </c>
       <c r="G10" s="16">
-        <f>C10-E10</f>
-        <v>3.2469887999999969</v>
-      </c>
-      <c r="H10" s="17">
-        <f t="shared" si="0"/>
-        <v>84.509172110000009</v>
-      </c>
-      <c r="I10" s="18">
-        <f>C10-E10</f>
-        <v>3.2469887999999969</v>
-      </c>
-      <c r="J10" s="16">
         <f t="shared" si="1"/>
         <v>3.2469887999999969</v>
       </c>
+      <c r="H10" s="17">
+        <f t="shared" si="3"/>
+        <v>84.509172110000009</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="2"/>
+        <v>3.2469887999999969</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="4"/>
+        <v>3.2469887999999969</v>
+      </c>
       <c r="K10" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2469887999999969</v>
       </c>
       <c r="M10" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>38930</v>
       </c>
@@ -1284,42 +1329,42 @@
         <v>100</v>
       </c>
       <c r="E11" s="16">
-        <f>D11+K10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F11" s="16">
         <v>87.756160910000006</v>
       </c>
       <c r="G11" s="16">
-        <f>C11-E11</f>
+        <f t="shared" si="1"/>
         <v>-12.243839089999994</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124.57184128999999</v>
       </c>
       <c r="I11" s="18">
-        <f>C11-E11</f>
+        <f t="shared" si="2"/>
         <v>-12.243839089999994</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.243839089999994</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M11" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36.731517269999983</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>38961</v>
       </c>
@@ -1327,49 +1372,49 @@
         <v>9</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>124.57184128999999</v>
       </c>
       <c r="D12" s="15">
         <v>100</v>
       </c>
       <c r="E12" s="16">
-        <f>D12+K11</f>
+        <f t="shared" si="0"/>
         <v>112.24383908999999</v>
       </c>
       <c r="F12" s="16">
         <v>112.3280022</v>
       </c>
       <c r="G12" s="16">
-        <f>C12-E12</f>
-        <v>12.3280022</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="0"/>
-        <v>95.319301999999993</v>
-      </c>
-      <c r="I12" s="18">
-        <f>C12-E12</f>
-        <v>12.3280022</v>
-      </c>
-      <c r="J12" s="16">
         <f t="shared" si="1"/>
         <v>12.3280022</v>
       </c>
+      <c r="H12" s="17">
+        <f t="shared" si="3"/>
+        <v>95.319301999999993</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="2"/>
+        <v>12.3280022</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="4"/>
+        <v>12.3280022</v>
+      </c>
       <c r="K12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12.3280022</v>
       </c>
       <c r="M12" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>38991</v>
       </c>
@@ -1377,49 +1422,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>107.64730419999999</v>
       </c>
       <c r="D13" s="15">
         <v>100</v>
       </c>
       <c r="E13" s="16">
-        <f>D13+K12</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F13" s="16">
         <v>107.64730419999999</v>
       </c>
       <c r="G13" s="16">
-        <f>C13-E13</f>
-        <v>7.6473041999999936</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="0"/>
-        <v>100.97972300000001</v>
-      </c>
-      <c r="I13" s="18">
-        <f>C13-E13</f>
-        <v>7.6473041999999936</v>
-      </c>
-      <c r="J13" s="16">
         <f t="shared" si="1"/>
         <v>7.6473041999999936</v>
       </c>
+      <c r="H13" s="17">
+        <f t="shared" si="3"/>
+        <v>100.97972300000001</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="2"/>
+        <v>7.6473041999999936</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="4"/>
+        <v>7.6473041999999936</v>
+      </c>
       <c r="K13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.6473041999999936</v>
       </c>
       <c r="M13" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>39022</v>
       </c>
@@ -1427,49 +1472,49 @@
         <v>11</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>108.6270272</v>
       </c>
       <c r="D14" s="15">
         <v>100</v>
       </c>
       <c r="E14" s="16">
-        <f>D14+K13</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F14" s="16">
         <v>108.6270272</v>
       </c>
       <c r="G14" s="16">
-        <f>C14-E14</f>
-        <v>8.6270272000000006</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="0"/>
-        <v>107.1613292</v>
-      </c>
-      <c r="I14" s="18">
-        <f>C14-E14</f>
-        <v>8.6270272000000006</v>
-      </c>
-      <c r="J14" s="16">
         <f t="shared" si="1"/>
         <v>8.6270272000000006</v>
       </c>
+      <c r="H14" s="17">
+        <f t="shared" si="3"/>
+        <v>107.1613292</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="2"/>
+        <v>8.6270272000000006</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="4"/>
+        <v>8.6270272000000006</v>
+      </c>
       <c r="K14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.6270272000000006</v>
       </c>
       <c r="M14" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>39052</v>
       </c>
@@ -1477,21 +1522,21 @@
         <v>12</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>115.7883564</v>
       </c>
       <c r="D15" s="15">
         <v>100</v>
       </c>
       <c r="E15" s="16">
-        <f>D15+K14</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F15" s="16">
         <v>115.7883564</v>
       </c>
       <c r="G15" s="16">
-        <f>C15-E15</f>
+        <f t="shared" si="1"/>
         <v>15.788356399999998</v>
       </c>
       <c r="H15" s="17">
@@ -1499,27 +1544,27 @@
         <v>83.756785500000007</v>
       </c>
       <c r="I15" s="18">
-        <f>C15-E15</f>
+        <f t="shared" si="2"/>
         <v>15.788356399999998</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.788356399999998</v>
       </c>
       <c r="K15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.788356399999998</v>
       </c>
       <c r="M15" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>39083</v>
       </c>
@@ -1534,22 +1579,22 @@
         <v>100</v>
       </c>
       <c r="E16" s="16">
-        <f>D16+K15</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F16" s="16">
         <v>99.545141900000004</v>
       </c>
       <c r="G16" s="16">
-        <f>C16-E16</f>
+        <f t="shared" si="1"/>
         <v>-0.4548580999999956</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100.19828522</v>
       </c>
       <c r="I16" s="18">
-        <f>C16-E16</f>
+        <f t="shared" si="2"/>
         <v>-0.4548580999999956</v>
       </c>
       <c r="J16" s="16">
@@ -1569,7 +1614,7 @@
         <v>1.3645742999999868</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>39114</v>
       </c>
@@ -1577,49 +1622,49 @@
         <v>14</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" ref="C17:C27" si="6">J16+H16</f>
+        <f t="shared" ref="C17:C27" si="9">J16+H16</f>
         <v>100.19828522</v>
       </c>
       <c r="D17" s="15">
         <v>100</v>
       </c>
       <c r="E17" s="16">
-        <f>D17+K16</f>
+        <f t="shared" si="0"/>
         <v>100.4548581</v>
       </c>
       <c r="F17" s="16">
         <v>99.743427120000007</v>
       </c>
       <c r="G17" s="16">
-        <f>C17-E17</f>
+        <f t="shared" si="1"/>
         <v>-0.25657287999999312</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>112.65839047999999</v>
       </c>
       <c r="I17" s="18">
-        <f>C17-E17</f>
+        <f t="shared" si="2"/>
         <v>-0.25657287999999312</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" ref="K17:K27" si="7">MAX(-I17,0)</f>
+        <f t="shared" ref="K17:K27" si="10">MAX(-I17,0)</f>
         <v>0.25657287999999312</v>
       </c>
       <c r="L17" s="19">
-        <f t="shared" ref="L17:L27" si="8">(1*J17)+(1*(MAX(J17-90,0)))</f>
+        <f t="shared" ref="L17:L27" si="11">(1*J17)+(1*(MAX(J17-90,0)))</f>
         <v>0</v>
       </c>
       <c r="M17" s="20">
-        <f t="shared" ref="M17:M27" si="9">3*K17</f>
+        <f t="shared" ref="M17:M27" si="12">3*K17</f>
         <v>0.76971863999997936</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>39142</v>
       </c>
@@ -1627,49 +1672,49 @@
         <v>15</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>112.65839047999999</v>
       </c>
       <c r="D18" s="15">
         <v>100</v>
       </c>
       <c r="E18" s="16">
-        <f>D18+K17</f>
+        <f t="shared" si="0"/>
         <v>100.25657287999999</v>
       </c>
       <c r="F18" s="16">
         <v>112.4018176</v>
       </c>
       <c r="G18" s="16">
-        <f>C18-E18</f>
-        <v>12.401817600000001</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" si="0"/>
-        <v>85.357666190000003</v>
-      </c>
-      <c r="I18" s="18">
-        <f>C18-E18</f>
-        <v>12.401817600000001</v>
-      </c>
-      <c r="J18" s="16">
         <f t="shared" si="1"/>
         <v>12.401817600000001</v>
       </c>
+      <c r="H18" s="17">
+        <f t="shared" si="3"/>
+        <v>85.357666190000003</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="2"/>
+        <v>12.401817600000001</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="4"/>
+        <v>12.401817600000001</v>
+      </c>
       <c r="K18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L18" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12.401817600000001</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>39173</v>
       </c>
@@ -1677,49 +1722,49 @@
         <v>16</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>97.759483790000004</v>
       </c>
       <c r="D19" s="15">
         <v>100</v>
       </c>
       <c r="E19" s="16">
-        <f>D19+K18</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F19" s="16">
         <v>97.759483790000004</v>
       </c>
       <c r="G19" s="16">
-        <f>C19-E19</f>
+        <f t="shared" si="1"/>
         <v>-2.2405162099999956</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>102.20896307</v>
       </c>
       <c r="I19" s="18">
-        <f>C19-E19</f>
+        <f t="shared" si="2"/>
         <v>-2.2405162099999956</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.2405162099999956</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.7215486299999867</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>39203</v>
       </c>
@@ -1727,49 +1772,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>102.20896307</v>
       </c>
       <c r="D20" s="15">
         <v>100</v>
       </c>
       <c r="E20" s="16">
-        <f>D20+K19</f>
+        <f t="shared" si="0"/>
         <v>102.24051621</v>
       </c>
       <c r="F20" s="16">
         <v>99.96844686</v>
       </c>
       <c r="G20" s="16">
-        <f>C20-E20</f>
+        <f t="shared" si="1"/>
         <v>-3.1553139999999757E-2</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111.35575294</v>
       </c>
       <c r="I20" s="18">
-        <f>C20-E20</f>
+        <f t="shared" si="2"/>
         <v>-3.1553139999999757E-2</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1553139999999757E-2</v>
       </c>
       <c r="L20" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M20" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.4659419999999272E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>39234</v>
       </c>
@@ -1777,49 +1822,49 @@
         <v>18</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>111.35575294</v>
       </c>
       <c r="D21" s="15">
         <v>100</v>
       </c>
       <c r="E21" s="16">
-        <f>D21+K20</f>
+        <f t="shared" si="0"/>
         <v>100.03155314</v>
       </c>
       <c r="F21" s="16">
         <v>111.3241998</v>
       </c>
       <c r="G21" s="16">
-        <f>C21-E21</f>
-        <v>11.324199800000002</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="0"/>
-        <v>91.997214700000001</v>
-      </c>
-      <c r="I21" s="18">
-        <f>C21-E21</f>
-        <v>11.324199800000002</v>
-      </c>
-      <c r="J21" s="16">
         <f t="shared" si="1"/>
         <v>11.324199800000002</v>
       </c>
+      <c r="H21" s="17">
+        <f t="shared" si="3"/>
+        <v>91.997214700000001</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="2"/>
+        <v>11.324199800000002</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="4"/>
+        <v>11.324199800000002</v>
+      </c>
       <c r="K21" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11.324199800000002</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>39264</v>
       </c>
@@ -1827,49 +1872,49 @@
         <v>19</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>103.3214145</v>
       </c>
       <c r="D22" s="15">
         <v>100</v>
       </c>
       <c r="E22" s="16">
-        <f>D22+K21</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F22" s="16">
         <v>103.3214145</v>
       </c>
       <c r="G22" s="16">
-        <f>C22-E22</f>
-        <v>3.321414500000003</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="0"/>
-        <v>84.334312879999999</v>
-      </c>
-      <c r="I22" s="18">
-        <f>C22-E22</f>
-        <v>3.321414500000003</v>
-      </c>
-      <c r="J22" s="16">
         <f t="shared" si="1"/>
         <v>3.321414500000003</v>
       </c>
+      <c r="H22" s="17">
+        <f t="shared" si="3"/>
+        <v>84.334312879999999</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="2"/>
+        <v>3.321414500000003</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="4"/>
+        <v>3.321414500000003</v>
+      </c>
       <c r="K22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.321414500000003</v>
       </c>
       <c r="M22" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>39295</v>
       </c>
@@ -1877,49 +1922,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>87.655727380000002</v>
       </c>
       <c r="D23" s="15">
         <v>100</v>
       </c>
       <c r="E23" s="16">
-        <f>D23+K22</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F23" s="16">
         <v>87.655727380000002</v>
       </c>
       <c r="G23" s="16">
-        <f>C23-E23</f>
+        <f t="shared" si="1"/>
         <v>-12.344272619999998</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124.71610572</v>
       </c>
       <c r="I23" s="18">
-        <f>C23-E23</f>
+        <f t="shared" si="2"/>
         <v>-12.344272619999998</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12.344272619999998</v>
       </c>
       <c r="L23" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M23" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>37.032817859999994</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>39326</v>
       </c>
@@ -1927,49 +1972,49 @@
         <v>21</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>124.71610572</v>
       </c>
       <c r="D24" s="15">
         <v>100</v>
       </c>
       <c r="E24" s="16">
-        <f>D24+K23</f>
+        <f t="shared" si="0"/>
         <v>112.34427262</v>
       </c>
       <c r="F24" s="16">
         <v>112.3718331</v>
       </c>
       <c r="G24" s="16">
-        <f>C24-E24</f>
-        <v>12.371833100000003</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="0"/>
-        <v>95.30156199999999</v>
-      </c>
-      <c r="I24" s="18">
-        <f>C24-E24</f>
-        <v>12.371833100000003</v>
-      </c>
-      <c r="J24" s="16">
         <f t="shared" si="1"/>
         <v>12.371833100000003</v>
       </c>
+      <c r="H24" s="17">
+        <f t="shared" si="3"/>
+        <v>95.30156199999999</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="2"/>
+        <v>12.371833100000003</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="4"/>
+        <v>12.371833100000003</v>
+      </c>
       <c r="K24" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12.371833100000003</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>39356</v>
       </c>
@@ -1977,49 +2022,49 @@
         <v>22</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>107.67339509999999</v>
       </c>
       <c r="D25" s="15">
         <v>100</v>
       </c>
       <c r="E25" s="16">
-        <f>D25+K24</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F25" s="16">
         <v>107.67339509999999</v>
       </c>
       <c r="G25" s="16">
-        <f>C25-E25</f>
-        <v>7.6733950999999934</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="0"/>
-        <v>100.8997796</v>
-      </c>
-      <c r="I25" s="18">
-        <f>C25-E25</f>
-        <v>7.6733950999999934</v>
-      </c>
-      <c r="J25" s="16">
         <f t="shared" si="1"/>
         <v>7.6733950999999934</v>
       </c>
+      <c r="H25" s="17">
+        <f t="shared" si="3"/>
+        <v>100.8997796</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="2"/>
+        <v>7.6733950999999934</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="4"/>
+        <v>7.6733950999999934</v>
+      </c>
       <c r="K25" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.6733950999999934</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>39387</v>
       </c>
@@ -2027,21 +2072,21 @@
         <v>23</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>108.5731747</v>
       </c>
       <c r="D26" s="15">
         <v>100</v>
       </c>
       <c r="E26" s="16">
-        <f>D26+K25</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F26" s="16">
         <v>108.5731747</v>
       </c>
       <c r="G26" s="16">
-        <f>C26-E26</f>
+        <f t="shared" si="1"/>
         <v>8.5731746999999956</v>
       </c>
       <c r="H26" s="17">
@@ -2049,27 +2094,27 @@
         <v>107.74804280000001</v>
       </c>
       <c r="I26" s="18">
-        <f>C26-E26</f>
+        <f t="shared" si="2"/>
         <v>8.5731746999999956</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.5731746999999956</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L26" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5731746999999956</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
         <v>39417</v>
       </c>
@@ -2077,53 +2122,51 @@
         <v>24</v>
       </c>
       <c r="C27" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>116.3212175</v>
       </c>
       <c r="D27" s="15">
         <v>100</v>
       </c>
       <c r="E27" s="24">
-        <f>D27+K26</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F27" s="24">
         <v>116.3212175</v>
       </c>
       <c r="G27" s="24">
-        <f>C27-E27</f>
+        <f t="shared" si="1"/>
         <v>16.321217500000003</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="26">
-        <f>C27-E27</f>
+        <f t="shared" si="2"/>
         <v>16.321217500000003</v>
       </c>
       <c r="J27" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.321217500000003</v>
       </c>
       <c r="K27" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L27" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>16.321217500000003</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
         <v>16</v>
@@ -2142,9 +2185,10 @@
         <v>173.53014488999997</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -2159,47 +2203,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K32" t="s">
-        <v>19</v>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K32" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="L32" s="31">
         <f>SUM(L4:L27)</f>
         <v>143.32425556999999</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K33" t="s">
-        <v>20</v>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L33" s="31">
         <f>SUM(M4:M27)</f>
         <v>173.53014488999997</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="31">
         <f>L32/24</f>
         <v>5.9718439820833327</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K35" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="31">
         <f>L33/24</f>
         <v>7.2304227037499986</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K36" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="33">
+        <v>19</v>
+      </c>
+      <c r="L36" s="31">
         <f>SUM(L28:M28)</f>
         <v>316.85440045999997</v>
       </c>
